--- a/biology/Botanique/Jardin_Yili/Jardin_Yili.xlsx
+++ b/biology/Botanique/Jardin_Yili/Jardin_Yili.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin Yili est un jardin traditionnel chinois privé situé à Saint-Rémy-l'Honoré dans les Yvelines.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le jardin a été inauguré en juin 2004 à l'occasion de l'année de la France en Chine. Il s'étend sur 10 000 m² et comprend 1 000 m² de serres. On y trouve notamment une importante collection de bonsaïs et de pots.
-Conçu sur le principe du Yin et du Yang (associés entre autres, au féminin et au masculin) et du Feng shui (le vent et l’eau), il a été construit avec des matériaux venus de Chine par un couple chinois horticulteur et architecte, spécialistes des penjing (également connu sous l'appellation japonaise dérivée bonsaï). Il a bénéficié de l’aide des espaces verts de la ville de Suzhou, célèbre pour ses jardins traditionnels. Il est d’ailleurs jumelé avec l’un d’entre eux, le jardin Attardez-vous[1].
+Conçu sur le principe du Yin et du Yang (associés entre autres, au féminin et au masculin) et du Feng shui (le vent et l’eau), il a été construit avec des matériaux venus de Chine par un couple chinois horticulteur et architecte, spécialistes des penjing (également connu sous l'appellation japonaise dérivée bonsaï). Il a bénéficié de l’aide des espaces verts de la ville de Suzhou, célèbre pour ses jardins traditionnels. Il est d’ailleurs jumelé avec l’un d’entre eux, le jardin Attardez-vous.
 Il y a trois parties principales :
 le Jardin de lettré (typique de Suzhou)
 le Jardin de pivoines (fleur d’origine chinoise, associée à la gloire et à la richesse). Ce jardin utilise les formes des 8 trigrammes pour composer les 8 parterres de fleurs.
@@ -551,7 +565,9 @@
           <t>Visites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En 2020, le jardin est ouvert les week-ends du 1er mars au 20 novembre, de 10h à 19h. Entrée : 7 euros (gratuit pour les enfants de moins de 8 ans).
 Les visites de groupe se font sur rendez-vous le week-end ou en semaine (école, association, fête, mariage, etc.).
